--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_5_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05110261464994238</v>
       </c>
       <c r="F2" t="n">
-        <v>3.72167984544716</v>
+        <v>3.722691922189325</v>
       </c>
       <c r="G2" t="n">
-        <v>3.536756988155284</v>
+        <v>3.524216379249138</v>
       </c>
       <c r="H2" t="n">
-        <v>3.906110185083279</v>
+        <v>3.909279656780932</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6545090664889871</v>
+        <v>0.654594052840987</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6419297101627031</v>
+        <v>0.6425483925771267</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6668943817577875</v>
+        <v>0.6671019205430807</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05082938683002984</v>
+        <v>0.05083348664753782</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0498413788765754</v>
+        <v>0.04986780401849426</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05181008872178344</v>
+        <v>0.05182526186168855</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0007182774436394636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003224911139143583</v>
+        <v>0.00322234067449196</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00243184917766755</v>
+        <v>0.002419159407689076</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004102885666348482</v>
+        <v>0.004126840667797761</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002988846523335308</v>
+        <v>0.002986376399492045</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002244665834234434</v>
+        <v>0.002232978267157508</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003807985597626501</v>
+        <v>0.003830695812969464</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003366812571102766</v>
+        <v>0.003364225886023208</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002560007508654863</v>
+        <v>0.002546671641955229</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004258525571093764</v>
+        <v>0.004282845019355047</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05182089209358184</v>
       </c>
       <c r="F4" t="n">
-        <v>3.724904756586304</v>
+        <v>3.725914262863816</v>
       </c>
       <c r="G4" t="n">
-        <v>3.539188837332952</v>
+        <v>3.526635538656826</v>
       </c>
       <c r="H4" t="n">
-        <v>3.910213070749628</v>
+        <v>3.913406497448729</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6574979130123224</v>
+        <v>0.6575804292404792</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6441743759969376</v>
+        <v>0.6447813708442841</v>
       </c>
       <c r="K4" t="n">
-        <v>0.670702367355414</v>
+        <v>0.6709326163560502</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0541961994011326</v>
+        <v>0.05419771253356103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05240138638523027</v>
+        <v>0.0524144756604495</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05606861429287721</v>
+        <v>0.0561081068810436</v>
       </c>
     </row>
   </sheetData>
